--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1518.67560330275</v>
+        <v>1753.600113791111</v>
       </c>
       <c r="AB2" t="n">
-        <v>2077.918959677872</v>
+        <v>2399.353039065985</v>
       </c>
       <c r="AC2" t="n">
-        <v>1879.605290543791</v>
+        <v>2170.362152530668</v>
       </c>
       <c r="AD2" t="n">
-        <v>1518675.60330275</v>
+        <v>1753600.113791111</v>
       </c>
       <c r="AE2" t="n">
-        <v>2077918.959677872</v>
+        <v>2399353.039065985</v>
       </c>
       <c r="AF2" t="n">
         <v>3.302770116249276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.51953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1879605.290543791</v>
+        <v>2170362.152530667</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>781.7535541097675</v>
+        <v>928.5140533572884</v>
       </c>
       <c r="AB3" t="n">
-        <v>1069.629701265713</v>
+        <v>1270.433890952443</v>
       </c>
       <c r="AC3" t="n">
-        <v>967.5457438116274</v>
+        <v>1149.185463465105</v>
       </c>
       <c r="AD3" t="n">
-        <v>781753.5541097675</v>
+        <v>928514.0533572884</v>
       </c>
       <c r="AE3" t="n">
-        <v>1069629.701265713</v>
+        <v>1270433.890952443</v>
       </c>
       <c r="AF3" t="n">
         <v>5.182456145183261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>967545.7438116274</v>
+        <v>1149185.463465105</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>642.1055052818277</v>
+        <v>779.1106376479238</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.5570800222221</v>
+        <v>1066.013546365373</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.7088253675067</v>
+        <v>964.2747096596706</v>
       </c>
       <c r="AD4" t="n">
-        <v>642105.5052818278</v>
+        <v>779110.6376479238</v>
       </c>
       <c r="AE4" t="n">
-        <v>878557.080022222</v>
+        <v>1066013.546365374</v>
       </c>
       <c r="AF4" t="n">
         <v>5.900145680663122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>794708.8253675067</v>
+        <v>964274.7096596706</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>587.6401199326522</v>
+        <v>705.0692207879088</v>
       </c>
       <c r="AB5" t="n">
-        <v>804.0351369442628</v>
+        <v>964.7068133407256</v>
       </c>
       <c r="AC5" t="n">
-        <v>727.2991519447037</v>
+        <v>872.6365490500021</v>
       </c>
       <c r="AD5" t="n">
-        <v>587640.1199326522</v>
+        <v>705069.2207879088</v>
       </c>
       <c r="AE5" t="n">
-        <v>804035.1369442628</v>
+        <v>964706.8133407256</v>
       </c>
       <c r="AF5" t="n">
         <v>6.274057830320247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.01302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>727299.1519447037</v>
+        <v>872636.5490500021</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>546.780412947933</v>
+        <v>664.1753483844087</v>
       </c>
       <c r="AB6" t="n">
-        <v>748.129083244719</v>
+        <v>908.754013007934</v>
       </c>
       <c r="AC6" t="n">
-        <v>676.7286935456053</v>
+        <v>822.023805450724</v>
       </c>
       <c r="AD6" t="n">
-        <v>546780.412947933</v>
+        <v>664175.3483844087</v>
       </c>
       <c r="AE6" t="n">
-        <v>748129.0832447191</v>
+        <v>908754.013007934</v>
       </c>
       <c r="AF6" t="n">
         <v>6.524296909201033e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.05598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>676728.6935456053</v>
+        <v>822023.805450724</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>516.4407994419397</v>
+        <v>633.90305468612</v>
       </c>
       <c r="AB7" t="n">
-        <v>706.6170855565372</v>
+        <v>867.3341252505935</v>
       </c>
       <c r="AC7" t="n">
-        <v>639.1785426543288</v>
+        <v>784.5569736477665</v>
       </c>
       <c r="AD7" t="n">
-        <v>516440.7994419397</v>
+        <v>633903.05468612</v>
       </c>
       <c r="AE7" t="n">
-        <v>706617.0855565371</v>
+        <v>867334.1252505935</v>
       </c>
       <c r="AF7" t="n">
         <v>6.667256228831384e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>639178.5426543287</v>
+        <v>784556.9736477665</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>511.505278107201</v>
+        <v>628.8660481248959</v>
       </c>
       <c r="AB8" t="n">
-        <v>699.8640875265136</v>
+        <v>860.4422706564809</v>
       </c>
       <c r="AC8" t="n">
-        <v>633.0700412783984</v>
+        <v>778.3228679833371</v>
       </c>
       <c r="AD8" t="n">
-        <v>511505.278107201</v>
+        <v>628866.0481248959</v>
       </c>
       <c r="AE8" t="n">
-        <v>699864.0875265136</v>
+        <v>860442.2706564809</v>
       </c>
       <c r="AF8" t="n">
         <v>6.707757351424806e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.3984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>633070.0412783985</v>
+        <v>778322.8679833371</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1111.188647586192</v>
+        <v>1304.73231078065</v>
       </c>
       <c r="AB2" t="n">
-        <v>1520.377329810748</v>
+        <v>1785.192308337205</v>
       </c>
       <c r="AC2" t="n">
-        <v>1375.274651316594</v>
+        <v>1614.816059962642</v>
       </c>
       <c r="AD2" t="n">
-        <v>1111188.647586192</v>
+        <v>1304732.31078065</v>
       </c>
       <c r="AE2" t="n">
-        <v>1520377.329810748</v>
+        <v>1785192.308337205</v>
       </c>
       <c r="AF2" t="n">
         <v>4.286751107258008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.06510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1375274.651316594</v>
+        <v>1614816.059962642</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.6458660885783</v>
+        <v>790.7857725026383</v>
       </c>
       <c r="AB3" t="n">
-        <v>883.4011578677133</v>
+        <v>1081.987980944192</v>
       </c>
       <c r="AC3" t="n">
-        <v>799.0905912221303</v>
+        <v>978.7245666225463</v>
       </c>
       <c r="AD3" t="n">
-        <v>645645.8660885782</v>
+        <v>790785.7725026383</v>
       </c>
       <c r="AE3" t="n">
-        <v>883401.1578677134</v>
+        <v>1081987.980944192</v>
       </c>
       <c r="AF3" t="n">
         <v>6.135875792623748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.98828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>799090.5912221303</v>
+        <v>978724.5666225463</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>554.1333181659312</v>
+        <v>679.8789718908514</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.1896525512682</v>
+        <v>930.240403484423</v>
       </c>
       <c r="AC4" t="n">
-        <v>685.8290962376352</v>
+        <v>841.4595649764752</v>
       </c>
       <c r="AD4" t="n">
-        <v>554133.3181659312</v>
+        <v>679878.9718908514</v>
       </c>
       <c r="AE4" t="n">
-        <v>758189.6525512682</v>
+        <v>930240.4034844231</v>
       </c>
       <c r="AF4" t="n">
         <v>6.821449980536094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.17578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>685829.0962376352</v>
+        <v>841459.5649764752</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.9069484545904</v>
+        <v>621.6857565684343</v>
       </c>
       <c r="AB5" t="n">
-        <v>678.5217647460746</v>
+        <v>850.617878976823</v>
       </c>
       <c r="AC5" t="n">
-        <v>613.7645998299864</v>
+        <v>769.4361024569657</v>
       </c>
       <c r="AD5" t="n">
-        <v>495906.9484545904</v>
+        <v>621685.7565684343</v>
       </c>
       <c r="AE5" t="n">
-        <v>678521.7647460746</v>
+        <v>850617.8789768231</v>
       </c>
       <c r="AF5" t="n">
         <v>7.186263024738779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.89973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>613764.5998299865</v>
+        <v>769436.1024569657</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.7309487974293</v>
+        <v>600.8975385987267</v>
       </c>
       <c r="AB6" t="n">
-        <v>663.2302689648396</v>
+        <v>822.1745220392188</v>
       </c>
       <c r="AC6" t="n">
-        <v>599.9325029443634</v>
+        <v>743.7073395849841</v>
       </c>
       <c r="AD6" t="n">
-        <v>484730.9487974293</v>
+        <v>600897.5385987266</v>
       </c>
       <c r="AE6" t="n">
-        <v>663230.2689648396</v>
+        <v>822174.5220392188</v>
       </c>
       <c r="AF6" t="n">
         <v>7.28650088214805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.56770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>599932.5029443634</v>
+        <v>743707.3395849841</v>
       </c>
     </row>
   </sheetData>
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.8744963770721</v>
+        <v>643.8512407332433</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.7375123689981</v>
+        <v>880.9456722832615</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.7646690832845</v>
+        <v>796.8694537355628</v>
       </c>
       <c r="AD2" t="n">
-        <v>512874.4963770721</v>
+        <v>643851.2407332433</v>
       </c>
       <c r="AE2" t="n">
-        <v>701737.512368998</v>
+        <v>880945.6722832615</v>
       </c>
       <c r="AF2" t="n">
         <v>8.654557684558918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>634764.6690832844</v>
+        <v>796869.4537355629</v>
       </c>
     </row>
     <row r="3">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.3354258321372</v>
+        <v>564.8552032220966</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.5910882021435</v>
+        <v>772.8598087012989</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.6988861000696</v>
+        <v>699.0991532744004</v>
       </c>
       <c r="AD3" t="n">
-        <v>443335.4258321372</v>
+        <v>564855.2032220967</v>
       </c>
       <c r="AE3" t="n">
-        <v>606591.0882021436</v>
+        <v>772859.8087012989</v>
       </c>
       <c r="AF3" t="n">
         <v>9.556611046558807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.08463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>548698.8861000695</v>
+        <v>699099.1532744004</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.3141232880203</v>
+        <v>832.9337601171972</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.2040409404404</v>
+        <v>1139.656717036412</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.2357956296729</v>
+        <v>1030.889479480705</v>
       </c>
       <c r="AD2" t="n">
-        <v>681314.1232880203</v>
+        <v>832933.7601171972</v>
       </c>
       <c r="AE2" t="n">
-        <v>932204.0409404405</v>
+        <v>1139656.717036412</v>
       </c>
       <c r="AF2" t="n">
         <v>6.618646060382112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.36067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>843235.7956296729</v>
+        <v>1030889.479480705</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.5398349155282</v>
+        <v>591.7790811669729</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.0768726500911</v>
+        <v>809.6982463031429</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.8933956814075</v>
+        <v>732.4217820945962</v>
       </c>
       <c r="AD3" t="n">
-        <v>468539.8349155282</v>
+        <v>591779.0811669729</v>
       </c>
       <c r="AE3" t="n">
-        <v>641076.8726500911</v>
+        <v>809698.246303143</v>
       </c>
       <c r="AF3" t="n">
         <v>8.367527149176593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.81119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>579893.3956814074</v>
+        <v>732421.7820945962</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.2518675192923</v>
+        <v>567.9753892533345</v>
       </c>
       <c r="AB4" t="n">
-        <v>621.5274453179268</v>
+        <v>777.128984882131</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.2097382560312</v>
+        <v>702.9608852723604</v>
       </c>
       <c r="AD4" t="n">
-        <v>454251.8675192923</v>
+        <v>567975.3892533345</v>
       </c>
       <c r="AE4" t="n">
-        <v>621527.4453179268</v>
+        <v>777128.984882131</v>
       </c>
       <c r="AF4" t="n">
         <v>8.583387221576571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.18619791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>562209.7382560312</v>
+        <v>702960.8852723604</v>
       </c>
     </row>
   </sheetData>
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.5623933337649</v>
+        <v>559.7612350113637</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.4286586834245</v>
+        <v>765.8900166653572</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.0291516091017</v>
+        <v>692.7945484082044</v>
       </c>
       <c r="AD2" t="n">
-        <v>439562.3933337649</v>
+        <v>559761.2350113638</v>
       </c>
       <c r="AE2" t="n">
-        <v>601428.6586834245</v>
+        <v>765890.0166653572</v>
       </c>
       <c r="AF2" t="n">
         <v>1.041022808339523e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.37369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>544029.1516091018</v>
+        <v>692794.5484082043</v>
       </c>
     </row>
     <row r="3">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.3266455007335</v>
+        <v>559.5254871783324</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.1060980978107</v>
+        <v>765.5674560797434</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.7373757530623</v>
+        <v>692.502772552165</v>
       </c>
       <c r="AD3" t="n">
-        <v>439326.6455007335</v>
+        <v>559525.4871783324</v>
       </c>
       <c r="AE3" t="n">
-        <v>601106.0980978106</v>
+        <v>765567.4560797433</v>
       </c>
       <c r="AF3" t="n">
         <v>1.045492889263285e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.26302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>543737.3757530623</v>
+        <v>692502.772552165</v>
       </c>
     </row>
   </sheetData>
@@ -5696,28 +5696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1193.392661417045</v>
+        <v>1406.920761953672</v>
       </c>
       <c r="AB2" t="n">
-        <v>1632.85248811926</v>
+        <v>1925.011055468425</v>
       </c>
       <c r="AC2" t="n">
-        <v>1477.015338376017</v>
+        <v>1741.290702104502</v>
       </c>
       <c r="AD2" t="n">
-        <v>1193392.661417045</v>
+        <v>1406920.761953672</v>
       </c>
       <c r="AE2" t="n">
-        <v>1632852.488119259</v>
+        <v>1925011.055468424</v>
       </c>
       <c r="AF2" t="n">
         <v>4.015361816701671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.73828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1477015.338376017</v>
+        <v>1741290.702104502</v>
       </c>
     </row>
     <row r="3">
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>681.2489543517054</v>
+        <v>826.8487194153262</v>
       </c>
       <c r="AB3" t="n">
-        <v>932.1148739267238</v>
+        <v>1131.330895895063</v>
       </c>
       <c r="AC3" t="n">
-        <v>843.1551385905988</v>
+        <v>1023.358263023722</v>
       </c>
       <c r="AD3" t="n">
-        <v>681248.9543517054</v>
+        <v>826848.7194153261</v>
       </c>
       <c r="AE3" t="n">
-        <v>932114.8739267238</v>
+        <v>1131330.895895063</v>
       </c>
       <c r="AF3" t="n">
         <v>5.870783829316944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.54817708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>843155.1385905987</v>
+        <v>1023358.263023722</v>
       </c>
     </row>
     <row r="4">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.2683015902435</v>
+        <v>699.4843746749915</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.370981048302</v>
+        <v>957.0653805030107</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.5117154886376</v>
+        <v>865.7244038375005</v>
       </c>
       <c r="AD4" t="n">
-        <v>573268.3015902435</v>
+        <v>699484.3746749915</v>
       </c>
       <c r="AE4" t="n">
-        <v>784370.981048302</v>
+        <v>957065.3805030107</v>
       </c>
       <c r="AF4" t="n">
         <v>6.568368964470577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.51432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>709511.7154886376</v>
+        <v>865724.4038375005</v>
       </c>
     </row>
     <row r="5">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.13365355059</v>
+        <v>640.5734781288068</v>
       </c>
       <c r="AB5" t="n">
-        <v>717.1427879327631</v>
+        <v>876.4608928831909</v>
       </c>
       <c r="AC5" t="n">
-        <v>648.6996867686838</v>
+        <v>792.8126953870075</v>
       </c>
       <c r="AD5" t="n">
-        <v>524133.65355059</v>
+        <v>640573.4781288068</v>
       </c>
       <c r="AE5" t="n">
-        <v>717142.7879327631</v>
+        <v>876460.8928831909</v>
       </c>
       <c r="AF5" t="n">
         <v>6.935180336276455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>648699.6867686838</v>
+        <v>792812.6953870074</v>
       </c>
     </row>
     <row r="6">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.1957634555847</v>
+        <v>607.702907841506</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.0757135876217</v>
+        <v>831.485928468891</v>
       </c>
       <c r="AC6" t="n">
-        <v>607.9337507470066</v>
+        <v>752.1300784536494</v>
       </c>
       <c r="AD6" t="n">
-        <v>491195.7634555847</v>
+        <v>607702.9078415059</v>
       </c>
       <c r="AE6" t="n">
-        <v>672075.7135876217</v>
+        <v>831485.928468891</v>
       </c>
       <c r="AF6" t="n">
         <v>7.126179661104498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>607933.7507470066</v>
+        <v>752130.0784536494</v>
       </c>
     </row>
     <row r="7">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>491.0904051888676</v>
+        <v>607.4960643483037</v>
       </c>
       <c r="AB7" t="n">
-        <v>671.9315577590207</v>
+        <v>831.2029160762009</v>
       </c>
       <c r="AC7" t="n">
-        <v>607.8033529483635</v>
+        <v>751.8740763665071</v>
       </c>
       <c r="AD7" t="n">
-        <v>491090.4051888676</v>
+        <v>607496.0643483037</v>
       </c>
       <c r="AE7" t="n">
-        <v>671931.5577590207</v>
+        <v>831202.9160762009</v>
       </c>
       <c r="AF7" t="n">
         <v>7.133387182796122e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.48958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>607803.3529483634</v>
+        <v>751874.0763665071</v>
       </c>
     </row>
   </sheetData>
@@ -6523,28 +6523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.2693194006659</v>
+        <v>569.8210912579797</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.7641502324219</v>
+        <v>779.6543557915123</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.1417471225458</v>
+        <v>705.2452383265304</v>
       </c>
       <c r="AD2" t="n">
-        <v>441269.3194006659</v>
+        <v>569821.0912579796</v>
       </c>
       <c r="AE2" t="n">
-        <v>603764.1502324219</v>
+        <v>779654.3557915123</v>
       </c>
       <c r="AF2" t="n">
         <v>1.097865464956519e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.36328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>546141.7471225457</v>
+        <v>705245.2383265304</v>
       </c>
     </row>
     <row r="3">
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.22485444994</v>
+        <v>571.7766263072538</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.4397995589562</v>
+        <v>782.3300051180466</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.5620362326531</v>
+        <v>707.6655274366378</v>
       </c>
       <c r="AD3" t="n">
-        <v>443224.85444994</v>
+        <v>571776.6263072537</v>
       </c>
       <c r="AE3" t="n">
-        <v>606439.7995589562</v>
+        <v>782330.0051180467</v>
       </c>
       <c r="AF3" t="n">
         <v>1.098050034445857e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>548562.0362326531</v>
+        <v>707665.5274366378</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>872.0771203915812</v>
+        <v>1044.567623269771</v>
       </c>
       <c r="AB2" t="n">
-        <v>1193.214389447003</v>
+        <v>1429.22350522886</v>
       </c>
       <c r="AC2" t="n">
-        <v>1079.335682805094</v>
+        <v>1292.820419817605</v>
       </c>
       <c r="AD2" t="n">
-        <v>872077.1203915812</v>
+        <v>1044567.623269771</v>
       </c>
       <c r="AE2" t="n">
-        <v>1193214.389447003</v>
+        <v>1429223.50522886</v>
       </c>
       <c r="AF2" t="n">
         <v>5.277647372959284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.38411458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1079335.682805094</v>
+        <v>1292820.419817605</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.6243500416349</v>
+        <v>686.2067994206401</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.4392128446084</v>
+        <v>938.8984162747281</v>
       </c>
       <c r="AC3" t="n">
-        <v>695.100452881927</v>
+        <v>849.2912691776709</v>
       </c>
       <c r="AD3" t="n">
-        <v>561624.3500416349</v>
+        <v>686206.7994206401</v>
       </c>
       <c r="AE3" t="n">
-        <v>768439.2128446084</v>
+        <v>938898.4162747281</v>
       </c>
       <c r="AF3" t="n">
         <v>7.08007868228951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.37369791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>695100.452881927</v>
+        <v>849291.2691776708</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.4120951688797</v>
+        <v>596.4061007642919</v>
       </c>
       <c r="AB4" t="n">
-        <v>658.6892670127696</v>
+        <v>816.0291386458924</v>
       </c>
       <c r="AC4" t="n">
-        <v>595.8248878452627</v>
+        <v>738.1484629576169</v>
       </c>
       <c r="AD4" t="n">
-        <v>481412.0951688797</v>
+        <v>596406.1007642918</v>
       </c>
       <c r="AE4" t="n">
-        <v>658689.2670127696</v>
+        <v>816029.1386458924</v>
       </c>
       <c r="AF4" t="n">
         <v>7.760436267542739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>595824.8878452627</v>
+        <v>738148.4629576169</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>464.3662934206795</v>
+        <v>588.9477317698274</v>
       </c>
       <c r="AB5" t="n">
-        <v>635.3664490531831</v>
+        <v>805.8242691476488</v>
       </c>
       <c r="AC5" t="n">
-        <v>574.7279668979584</v>
+        <v>728.9175318816615</v>
       </c>
       <c r="AD5" t="n">
-        <v>464366.2934206795</v>
+        <v>588947.7317698274</v>
       </c>
       <c r="AE5" t="n">
-        <v>635366.4490531832</v>
+        <v>805824.2691476488</v>
       </c>
       <c r="AF5" t="n">
         <v>7.843616579399162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.80859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>574727.9668979584</v>
+        <v>728917.5318816615</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1019.258534943265</v>
+        <v>1212.144692966598</v>
       </c>
       <c r="AB2" t="n">
-        <v>1394.594494022361</v>
+        <v>1658.509844966603</v>
       </c>
       <c r="AC2" t="n">
-        <v>1261.496352838531</v>
+        <v>1500.223993096177</v>
       </c>
       <c r="AD2" t="n">
-        <v>1019258.534943265</v>
+        <v>1212144.692966598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1394594.494022361</v>
+        <v>1658509.844966603</v>
       </c>
       <c r="AF2" t="n">
         <v>4.60097297983537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.30729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1261496.352838531</v>
+        <v>1500223.993096177</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.2762205854347</v>
+        <v>755.2900014269687</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.6892896605441</v>
+        <v>1033.421100995561</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.6915749982402</v>
+        <v>934.7928415321686</v>
       </c>
       <c r="AD3" t="n">
-        <v>620276.2205854347</v>
+        <v>755290.0014269687</v>
       </c>
       <c r="AE3" t="n">
-        <v>848689.2896605441</v>
+        <v>1033421.100995561</v>
       </c>
       <c r="AF3" t="n">
         <v>6.42685045282641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.42838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>767691.5749982402</v>
+        <v>934792.8415321686</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>522.7921953940873</v>
+        <v>648.2222056098959</v>
       </c>
       <c r="AB4" t="n">
-        <v>715.3073457020793</v>
+        <v>886.9262192608584</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.0394165684369</v>
+        <v>802.2792257033682</v>
       </c>
       <c r="AD4" t="n">
-        <v>522792.1953940873</v>
+        <v>648222.2056098959</v>
       </c>
       <c r="AE4" t="n">
-        <v>715307.3457020792</v>
+        <v>886926.2192608584</v>
       </c>
       <c r="AF4" t="n">
         <v>7.114803397498745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.77213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>647039.4165684369</v>
+        <v>802279.2257033682</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.3872930862186</v>
+        <v>596.200378287378</v>
       </c>
       <c r="AB5" t="n">
-        <v>657.2870875921957</v>
+        <v>815.7476600771437</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.5565304606172</v>
+        <v>737.8938483084121</v>
       </c>
       <c r="AD5" t="n">
-        <v>480387.2930862186</v>
+        <v>596200.378287378</v>
       </c>
       <c r="AE5" t="n">
-        <v>657287.0875921957</v>
+        <v>815747.6600771437</v>
       </c>
       <c r="AF5" t="n">
         <v>7.429945950666237e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>594556.5304606172</v>
+        <v>737893.8483084121</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>478.1173622371351</v>
+        <v>593.9304474382944</v>
       </c>
       <c r="AB6" t="n">
-        <v>654.1812680621981</v>
+        <v>812.6418405471461</v>
       </c>
       <c r="AC6" t="n">
-        <v>591.7471259875174</v>
+        <v>735.0844438353124</v>
       </c>
       <c r="AD6" t="n">
-        <v>478117.3622371351</v>
+        <v>593930.4474382944</v>
       </c>
       <c r="AE6" t="n">
-        <v>654181.2680621981</v>
+        <v>812641.8405471462</v>
       </c>
       <c r="AF6" t="n">
         <v>7.461081168547905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.62630208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>591747.1259875174</v>
+        <v>735084.4438353124</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.347291620694</v>
+        <v>1626.791010859946</v>
       </c>
       <c r="AB2" t="n">
-        <v>1918.753431591573</v>
+        <v>2225.847230012779</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735.630297067827</v>
+        <v>2013.415494376567</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402347.291620694</v>
+        <v>1626791.010859946</v>
       </c>
       <c r="AE2" t="n">
-        <v>1918753.431591573</v>
+        <v>2225847.230012779</v>
       </c>
       <c r="AF2" t="n">
         <v>3.522686828497233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.48828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1735630.297067827</v>
+        <v>2013415.494376567</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.9133140103827</v>
+        <v>901.0503428011601</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.223259485049</v>
+        <v>1232.85683055615</v>
       </c>
       <c r="AC3" t="n">
-        <v>921.9500220886237</v>
+        <v>1115.194704973299</v>
       </c>
       <c r="AD3" t="n">
-        <v>744913.3140103827</v>
+        <v>901050.3428011602</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019223.259485048</v>
+        <v>1232856.83055615</v>
       </c>
       <c r="AF3" t="n">
         <v>5.391214628535728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.72005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>921950.0220886236</v>
+        <v>1115194.704973299</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.3634966979428</v>
+        <v>750.2130315882638</v>
       </c>
       <c r="AB4" t="n">
-        <v>852.9134370386873</v>
+        <v>1026.474566882144</v>
       </c>
       <c r="AC4" t="n">
-        <v>771.5125756792414</v>
+        <v>928.509274885014</v>
       </c>
       <c r="AD4" t="n">
-        <v>623363.4966979427</v>
+        <v>750213.0315882638</v>
       </c>
       <c r="AE4" t="n">
-        <v>852913.4370386873</v>
+        <v>1026474.566882143</v>
       </c>
       <c r="AF4" t="n">
         <v>6.098803857343774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.26953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>771512.5756792414</v>
+        <v>928509.2748850139</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>558.2526792407696</v>
+        <v>685.1353685200143</v>
       </c>
       <c r="AB5" t="n">
-        <v>763.8259441072469</v>
+        <v>937.4324372482967</v>
       </c>
       <c r="AC5" t="n">
-        <v>690.927468038096</v>
+        <v>847.9652011320076</v>
       </c>
       <c r="AD5" t="n">
-        <v>558252.6792407696</v>
+        <v>685135.3685200142</v>
       </c>
       <c r="AE5" t="n">
-        <v>763825.9441072468</v>
+        <v>937432.4372482967</v>
       </c>
       <c r="AF5" t="n">
         <v>6.48373239781535e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>690927.468038096</v>
+        <v>847965.2011320075</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>520.329208558597</v>
+        <v>647.177732419061</v>
       </c>
       <c r="AB6" t="n">
-        <v>711.9373784544507</v>
+        <v>885.4971249622528</v>
       </c>
       <c r="AC6" t="n">
-        <v>643.9910742651437</v>
+        <v>800.9865221588751</v>
       </c>
       <c r="AD6" t="n">
-        <v>520329.208558597</v>
+        <v>647177.732419061</v>
       </c>
       <c r="AE6" t="n">
-        <v>711937.3784544508</v>
+        <v>885497.1249622528</v>
       </c>
       <c r="AF6" t="n">
         <v>6.720744024716966e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.84114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>643991.0742651436</v>
+        <v>800986.5221588751</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>505.1235504921161</v>
+        <v>622.1760849868853</v>
       </c>
       <c r="AB7" t="n">
-        <v>691.1323262616023</v>
+        <v>851.2887679507108</v>
       </c>
       <c r="AC7" t="n">
-        <v>625.1716270535064</v>
+        <v>770.0429627287842</v>
       </c>
       <c r="AD7" t="n">
-        <v>505123.5504921161</v>
+        <v>622176.0849868853</v>
       </c>
       <c r="AE7" t="n">
-        <v>691132.3262616023</v>
+        <v>851288.7679507108</v>
       </c>
       <c r="AF7" t="n">
         <v>6.82805146950316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.47005208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>625171.6270535064</v>
+        <v>770042.9627287842</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>504.684701009806</v>
+        <v>621.7372355045751</v>
       </c>
       <c r="AB8" t="n">
-        <v>690.5318730392327</v>
+        <v>850.6883147283413</v>
       </c>
       <c r="AC8" t="n">
-        <v>624.6284802439385</v>
+        <v>769.4998159192162</v>
       </c>
       <c r="AD8" t="n">
-        <v>504684.701009806</v>
+        <v>621737.2355045751</v>
       </c>
       <c r="AE8" t="n">
-        <v>690531.8730392327</v>
+        <v>850688.3147283413</v>
       </c>
       <c r="AF8" t="n">
         <v>6.845033610994553e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>624628.4802439385</v>
+        <v>769499.8159192161</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.6549506319286</v>
+        <v>900.4563990296509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1010.660290611141</v>
+        <v>1232.044170485021</v>
       </c>
       <c r="AC2" t="n">
-        <v>914.2042909458397</v>
+        <v>1114.459604038783</v>
       </c>
       <c r="AD2" t="n">
-        <v>738654.9506319286</v>
+        <v>900456.399029651</v>
       </c>
       <c r="AE2" t="n">
-        <v>1010660.290611141</v>
+        <v>1232044.170485021</v>
       </c>
       <c r="AF2" t="n">
         <v>6.118346914372775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.64973958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>914204.2909458397</v>
+        <v>1114459.604038783</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.8210954462221</v>
+        <v>626.4762560794157</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.9820056906624</v>
+        <v>857.1724517496706</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.3219686563543</v>
+        <v>775.3651160037732</v>
       </c>
       <c r="AD3" t="n">
-        <v>502821.0954462221</v>
+        <v>626476.2560794158</v>
       </c>
       <c r="AE3" t="n">
-        <v>687982.0056906624</v>
+        <v>857172.4517496706</v>
       </c>
       <c r="AF3" t="n">
         <v>7.890553512708725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>622321.9686563544</v>
+        <v>775365.1160037732</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.0520104009177</v>
+        <v>575.2215944636861</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.8317008096976</v>
+        <v>787.043562530946</v>
       </c>
       <c r="AC4" t="n">
-        <v>570.6260086622722</v>
+        <v>711.9292295455696</v>
       </c>
       <c r="AD4" t="n">
-        <v>461052.0104009177</v>
+        <v>575221.5944636861</v>
       </c>
       <c r="AE4" t="n">
-        <v>630831.7008096976</v>
+        <v>787043.562530946</v>
       </c>
       <c r="AF4" t="n">
         <v>8.309979831947859e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>570626.0086622721</v>
+        <v>711929.2295455695</v>
       </c>
     </row>
     <row r="5">
@@ -9513,28 +9513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>462.3341790899588</v>
+        <v>576.5037631527272</v>
       </c>
       <c r="AB5" t="n">
-        <v>632.586020575334</v>
+        <v>788.7978822965824</v>
       </c>
       <c r="AC5" t="n">
-        <v>572.2128986116793</v>
+        <v>713.5161194949767</v>
       </c>
       <c r="AD5" t="n">
-        <v>462334.1790899588</v>
+        <v>576503.7631527272</v>
       </c>
       <c r="AE5" t="n">
-        <v>632586.0205753341</v>
+        <v>788797.8822965825</v>
       </c>
       <c r="AF5" t="n">
         <v>8.309366187003837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.04296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>572212.8986116793</v>
+        <v>713516.1194949767</v>
       </c>
     </row>
   </sheetData>
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.2354587469829</v>
+        <v>706.2152938579042</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.3800910861378</v>
+        <v>966.2749210762687</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.5697806386512</v>
+        <v>874.0549987841182</v>
       </c>
       <c r="AD2" t="n">
-        <v>565235.4587469829</v>
+        <v>706215.2938579042</v>
       </c>
       <c r="AE2" t="n">
-        <v>773380.0910861378</v>
+        <v>966274.9210762687</v>
       </c>
       <c r="AF2" t="n">
         <v>7.850461158587731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>699569.7806386512</v>
+        <v>874054.9987841182</v>
       </c>
     </row>
     <row r="3">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>440.235453364403</v>
+        <v>562.4134217380306</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.3495691106564</v>
+        <v>769.5188555510033</v>
       </c>
       <c r="AC3" t="n">
-        <v>544.8621716376643</v>
+        <v>696.0770560037118</v>
       </c>
       <c r="AD3" t="n">
-        <v>440235.453364403</v>
+        <v>562413.4217380306</v>
       </c>
       <c r="AE3" t="n">
-        <v>602349.5691106564</v>
+        <v>769518.8555510032</v>
       </c>
       <c r="AF3" t="n">
         <v>9.189805234128497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>544862.1716376643</v>
+        <v>696077.0560037119</v>
       </c>
     </row>
     <row r="4">
@@ -10022,28 +10022,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.9130110116196</v>
+        <v>564.0909793852472</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.6448774921982</v>
+        <v>771.8141639325452</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.9384190087575</v>
+        <v>698.1533033748049</v>
       </c>
       <c r="AD4" t="n">
-        <v>441913.0110116196</v>
+        <v>564090.9793852472</v>
       </c>
       <c r="AE4" t="n">
-        <v>604644.8774921983</v>
+        <v>771814.1639325452</v>
       </c>
       <c r="AF4" t="n">
         <v>9.187711963888005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.72005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>546938.4190087575</v>
+        <v>698153.3033748049</v>
       </c>
     </row>
   </sheetData>
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.8582240277679</v>
+        <v>594.1076024561193</v>
       </c>
       <c r="AB2" t="n">
-        <v>634.6712860953617</v>
+        <v>812.8842318580621</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.0991493171642</v>
+        <v>735.3037016597128</v>
       </c>
       <c r="AD2" t="n">
-        <v>463858.2240277679</v>
+        <v>594107.6024561193</v>
       </c>
       <c r="AE2" t="n">
-        <v>634671.2860953617</v>
+        <v>812884.2318580621</v>
       </c>
       <c r="AF2" t="n">
         <v>9.588260008365746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>574099.1493171642</v>
+        <v>735303.7016597128</v>
       </c>
     </row>
     <row r="3">
@@ -17758,28 +17758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.105985302153</v>
+        <v>558.083561731633</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.0676928454991</v>
+        <v>763.5945500703079</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.9889516336026</v>
+        <v>690.7181579232791</v>
       </c>
       <c r="AD3" t="n">
-        <v>437105.985302153</v>
+        <v>558083.561731633</v>
       </c>
       <c r="AE3" t="n">
-        <v>598067.6928454991</v>
+        <v>763594.5500703079</v>
       </c>
       <c r="AF3" t="n">
         <v>9.975755478628649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>540988.9516336026</v>
+        <v>690718.1579232791</v>
       </c>
     </row>
   </sheetData>
@@ -18055,28 +18055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.7569650307522</v>
+        <v>591.4212115871012</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.2185420164359</v>
+        <v>809.2085933558707</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.8348776555949</v>
+        <v>731.9788609373795</v>
       </c>
       <c r="AD2" t="n">
-        <v>454756.9650307522</v>
+        <v>591421.2115871012</v>
       </c>
       <c r="AE2" t="n">
-        <v>622218.5420164359</v>
+        <v>809208.5933558707</v>
       </c>
       <c r="AF2" t="n">
         <v>1.152525436165426e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>562834.877655595</v>
+        <v>731978.8609373795</v>
       </c>
     </row>
   </sheetData>
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>940.8952552345772</v>
+        <v>1123.649358467923</v>
       </c>
       <c r="AB2" t="n">
-        <v>1287.374397581026</v>
+        <v>1537.426624166898</v>
       </c>
       <c r="AC2" t="n">
-        <v>1164.509191917207</v>
+        <v>1390.696784948229</v>
       </c>
       <c r="AD2" t="n">
-        <v>940895.2552345772</v>
+        <v>1123649.358467923</v>
       </c>
       <c r="AE2" t="n">
-        <v>1287374.397581026</v>
+        <v>1537426.624166898</v>
       </c>
       <c r="AF2" t="n">
         <v>4.914267533899949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.88151041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1164509.191917207</v>
+        <v>1390696.784948229</v>
       </c>
     </row>
     <row r="3">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.0352966707288</v>
+        <v>720.6872239429888</v>
       </c>
       <c r="AB3" t="n">
-        <v>801.8393469574936</v>
+        <v>986.0760542751767</v>
       </c>
       <c r="AC3" t="n">
-        <v>725.3129250724613</v>
+        <v>891.9663396215874</v>
       </c>
       <c r="AD3" t="n">
-        <v>586035.2966707288</v>
+        <v>720687.2239429888</v>
       </c>
       <c r="AE3" t="n">
-        <v>801839.3469574936</v>
+        <v>986076.0542751767</v>
       </c>
       <c r="AF3" t="n">
         <v>6.739057863289523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.89453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>725312.9250724614</v>
+        <v>891966.3396215874</v>
       </c>
     </row>
     <row r="4">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>502.8160861635916</v>
+        <v>627.7460930171491</v>
       </c>
       <c r="AB4" t="n">
-        <v>687.9751517691735</v>
+        <v>858.9098986691292</v>
       </c>
       <c r="AC4" t="n">
-        <v>622.3157688635126</v>
+        <v>776.9367434277609</v>
       </c>
       <c r="AD4" t="n">
-        <v>502816.0861635916</v>
+        <v>627746.093017149</v>
       </c>
       <c r="AE4" t="n">
-        <v>687975.1517691736</v>
+        <v>858909.8986691292</v>
       </c>
       <c r="AF4" t="n">
         <v>7.416081521729713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>622315.7688635127</v>
+        <v>776936.7434277609</v>
       </c>
     </row>
     <row r="5">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.083774200524</v>
+        <v>586.5289965071304</v>
       </c>
       <c r="AB5" t="n">
-        <v>644.5576026105026</v>
+        <v>802.5148488541577</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.0419296596325</v>
+        <v>725.9239580161806</v>
       </c>
       <c r="AD5" t="n">
-        <v>471083.774200524</v>
+        <v>586528.9965071303</v>
       </c>
       <c r="AE5" t="n">
-        <v>644557.6026105026</v>
+        <v>802514.8488541576</v>
       </c>
       <c r="AF5" t="n">
         <v>7.650478692949549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.69140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>583041.9296596325</v>
+        <v>725923.9580161805</v>
       </c>
     </row>
     <row r="6">
@@ -18776,28 +18776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>472.9057993670248</v>
+        <v>588.3510216736312</v>
       </c>
       <c r="AB6" t="n">
-        <v>647.0505778253863</v>
+        <v>805.0078240690412</v>
       </c>
       <c r="AC6" t="n">
-        <v>585.2969788189205</v>
+        <v>728.1790071754685</v>
       </c>
       <c r="AD6" t="n">
-        <v>472905.7993670248</v>
+        <v>588351.0216736312</v>
       </c>
       <c r="AE6" t="n">
-        <v>647050.5778253863</v>
+        <v>805007.8240690413</v>
       </c>
       <c r="AF6" t="n">
         <v>7.643519156986965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.7109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>585296.9788189204</v>
+        <v>728179.0071754685</v>
       </c>
     </row>
   </sheetData>
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1291.305353433087</v>
+        <v>1505.403101651721</v>
       </c>
       <c r="AB2" t="n">
-        <v>1766.820952938718</v>
+        <v>2059.758937377485</v>
       </c>
       <c r="AC2" t="n">
-        <v>1598.198040939028</v>
+        <v>1863.178435284003</v>
       </c>
       <c r="AD2" t="n">
-        <v>1291305.353433087</v>
+        <v>1505403.101651721</v>
       </c>
       <c r="AE2" t="n">
-        <v>1766820.952938718</v>
+        <v>2059758.937377485</v>
       </c>
       <c r="AF2" t="n">
         <v>3.765873240456614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.48307291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1598198.040939028</v>
+        <v>1863178.435284003</v>
       </c>
     </row>
     <row r="3">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>717.3561431710168</v>
+        <v>863.2995898389304</v>
       </c>
       <c r="AB3" t="n">
-        <v>981.5183226060527</v>
+        <v>1181.204584907548</v>
       </c>
       <c r="AC3" t="n">
-        <v>887.8435914661482</v>
+        <v>1068.472077155018</v>
       </c>
       <c r="AD3" t="n">
-        <v>717356.1431710168</v>
+        <v>863299.5898389304</v>
       </c>
       <c r="AE3" t="n">
-        <v>981518.3226060527</v>
+        <v>1181204.584907548</v>
       </c>
       <c r="AF3" t="n">
         <v>5.624787357547948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>887843.5914661482</v>
+        <v>1068472.077155018</v>
       </c>
     </row>
     <row r="4">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>593.1614781778346</v>
+        <v>729.4017504417119</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.5897028804557</v>
+        <v>997.9996538885052</v>
       </c>
       <c r="AC4" t="n">
-        <v>734.1327207108462</v>
+        <v>902.751967622697</v>
       </c>
       <c r="AD4" t="n">
-        <v>593161.4781778347</v>
+        <v>729401.7504417119</v>
       </c>
       <c r="AE4" t="n">
-        <v>811589.7028804556</v>
+        <v>997999.6538885052</v>
       </c>
       <c r="AF4" t="n">
         <v>6.324835799748921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.89192708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>734132.7207108462</v>
+        <v>902751.967622697</v>
       </c>
     </row>
     <row r="5">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.4986640110226</v>
+        <v>668.9352876742355</v>
       </c>
       <c r="AB5" t="n">
-        <v>742.2706054518068</v>
+        <v>915.2667719379759</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.4293406508234</v>
+        <v>827.9149958091972</v>
       </c>
       <c r="AD5" t="n">
-        <v>542498.6640110225</v>
+        <v>668935.2876742355</v>
       </c>
       <c r="AE5" t="n">
-        <v>742270.6054518068</v>
+        <v>915266.7719379759</v>
       </c>
       <c r="AF5" t="n">
         <v>6.694857811418929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.45963541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>671429.3406508234</v>
+        <v>827914.9958091972</v>
       </c>
     </row>
     <row r="6">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>502.4735232856113</v>
+        <v>619.3094688011303</v>
       </c>
       <c r="AB6" t="n">
-        <v>687.5064421267132</v>
+        <v>847.3665372191805</v>
       </c>
       <c r="AC6" t="n">
-        <v>621.8917922114908</v>
+        <v>766.4950641933857</v>
       </c>
       <c r="AD6" t="n">
-        <v>502473.5232856113</v>
+        <v>619309.4688011303</v>
       </c>
       <c r="AE6" t="n">
-        <v>687506.4421267132</v>
+        <v>847366.5372191805</v>
       </c>
       <c r="AF6" t="n">
         <v>6.939107555356097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.60026041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>621891.7922114908</v>
+        <v>766495.0641933857</v>
       </c>
     </row>
     <row r="7">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>499.2838013261213</v>
+        <v>616.0182616151551</v>
       </c>
       <c r="AB7" t="n">
-        <v>683.1421238211377</v>
+        <v>842.8633623495157</v>
       </c>
       <c r="AC7" t="n">
-        <v>617.9439983196402</v>
+        <v>762.421666013036</v>
       </c>
       <c r="AD7" t="n">
-        <v>499283.8013261213</v>
+        <v>616018.2616151551</v>
       </c>
       <c r="AE7" t="n">
-        <v>683142.1238211377</v>
+        <v>842863.3623495157</v>
       </c>
       <c r="AF7" t="n">
         <v>6.969544444147445e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>617943.9983196402</v>
+        <v>762421.6660130359</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.4736526218582</v>
+        <v>643.8765464769045</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.0876896876355</v>
+        <v>880.9802967181495</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.040022461335</v>
+        <v>796.9007736629807</v>
       </c>
       <c r="AD2" t="n">
-        <v>490473.6526218582</v>
+        <v>643876.5464769045</v>
       </c>
       <c r="AE2" t="n">
-        <v>671087.6896876355</v>
+        <v>880980.2967181494</v>
       </c>
       <c r="AF2" t="n">
         <v>1.18912141348703e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.41145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>607040.0224613349</v>
+        <v>796900.7736629806</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>626.5678202171744</v>
+        <v>768.1471183171878</v>
       </c>
       <c r="AB2" t="n">
-        <v>857.2977338424766</v>
+        <v>1051.012775540724</v>
       </c>
       <c r="AC2" t="n">
-        <v>775.4784413494764</v>
+        <v>950.7055913488115</v>
       </c>
       <c r="AD2" t="n">
-        <v>626567.8202171744</v>
+        <v>768147.1183171879</v>
       </c>
       <c r="AE2" t="n">
-        <v>857297.7338424766</v>
+        <v>1051012.775540724</v>
       </c>
       <c r="AF2" t="n">
         <v>7.193107228279316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.11067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>775478.4413494763</v>
+        <v>950705.5913488115</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.8584767141525</v>
+        <v>571.5847134820606</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.1479700787252</v>
+        <v>782.067421524021</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.5345497765004</v>
+        <v>707.4280044522877</v>
       </c>
       <c r="AD3" t="n">
-        <v>448858.4767141525</v>
+        <v>571584.7134820606</v>
       </c>
       <c r="AE3" t="n">
-        <v>614147.9700787251</v>
+        <v>782067.4215240211</v>
       </c>
       <c r="AF3" t="n">
         <v>8.83260736337762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.52473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>555534.5497765004</v>
+        <v>707428.0044522877</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.7179746103232</v>
+        <v>570.342726151746</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.5874847848642</v>
+        <v>780.3680796660707</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.1229950089307</v>
+        <v>705.8908453962188</v>
       </c>
       <c r="AD4" t="n">
-        <v>447717.9746103231</v>
+        <v>570342.726151746</v>
       </c>
       <c r="AE4" t="n">
-        <v>612587.4847848641</v>
+        <v>780368.0796660706</v>
       </c>
       <c r="AF4" t="n">
         <v>8.870201420858569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.42057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>554122.9950089307</v>
+        <v>705890.8453962188</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>809.2388637195688</v>
+        <v>971.6056590469416</v>
       </c>
       <c r="AB2" t="n">
-        <v>1107.236314440125</v>
+        <v>1329.393726924499</v>
       </c>
       <c r="AC2" t="n">
-        <v>1001.563234605886</v>
+        <v>1202.518255442638</v>
       </c>
       <c r="AD2" t="n">
-        <v>809238.8637195688</v>
+        <v>971605.6590469416</v>
       </c>
       <c r="AE2" t="n">
-        <v>1107236.314440125</v>
+        <v>1329393.726924499</v>
       </c>
       <c r="AF2" t="n">
         <v>5.670043639534075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.01692708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1001563.234605886</v>
+        <v>1202518.255442638</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.2211405771466</v>
+        <v>660.9220810272957</v>
       </c>
       <c r="AB3" t="n">
-        <v>721.367223892812</v>
+        <v>904.3027490859052</v>
       </c>
       <c r="AC3" t="n">
-        <v>652.5209484897388</v>
+        <v>817.9973639100256</v>
       </c>
       <c r="AD3" t="n">
-        <v>527221.1405771466</v>
+        <v>660922.0810272957</v>
       </c>
       <c r="AE3" t="n">
-        <v>721367.223892812</v>
+        <v>904302.7490859053</v>
       </c>
       <c r="AF3" t="n">
         <v>7.468519863965182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.82682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>652520.9484897387</v>
+        <v>817997.3639100256</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.5707343592442</v>
+        <v>583.716726860271</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.804953580193</v>
+        <v>798.6669774547444</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.7926913437939</v>
+        <v>722.4433220626059</v>
       </c>
       <c r="AD4" t="n">
-        <v>459570.7343592442</v>
+        <v>583716.7268602711</v>
       </c>
       <c r="AE4" t="n">
-        <v>628804.953580193</v>
+        <v>798666.9774547444</v>
       </c>
       <c r="AF4" t="n">
         <v>8.058927229356584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>568792.6913437939</v>
+        <v>722443.322062606</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.6919216503974</v>
+        <v>583.8379141514242</v>
       </c>
       <c r="AB5" t="n">
-        <v>628.9707673783547</v>
+        <v>798.832791252906</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.9426801057801</v>
+        <v>722.5933108245921</v>
       </c>
       <c r="AD5" t="n">
-        <v>459691.9216503974</v>
+        <v>583837.9141514242</v>
       </c>
       <c r="AE5" t="n">
-        <v>628970.7673783547</v>
+        <v>798832.791252906</v>
       </c>
       <c r="AF5" t="n">
         <v>8.070776850337845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>568942.6801057801</v>
+        <v>722593.3108245921</v>
       </c>
     </row>
   </sheetData>
